--- a/datasets_single/kpatcc_caz_avi_powderfix4.xlsx
+++ b/datasets_single/kpatcc_caz_avi_powderfix4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842E962E-9D9B-BE40-9AAC-D3C855040484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF9C83-C5A3-5D46-9B68-5F5689057498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="12560" windowWidth="25440" windowHeight="17440" xr2:uid="{E7517096-1379-AE42-A631-EEB26B8BC62A}"/>
+    <workbookView xWindow="10400" yWindow="3860" windowWidth="25440" windowHeight="17440" xr2:uid="{E7517096-1379-AE42-A631-EEB26B8BC62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>conc_s</t>
+  </si>
+  <si>
+    <t>ctz_s</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
